--- a/3_output/sensitivity_hwws/mon_visits/metareg_hw_s7.xlsx
+++ b/3_output/sensitivity_hwws/mon_visits/metareg_hw_s7.xlsx
@@ -2277,44 +2277,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>66.386676624545871</v>
+        <v>73.765563915715646</v>
       </c>
       <c r="B2">
-        <v>83.328124060860617</v>
+        <v>71.448428699979544</v>
       </c>
       <c r="C2">
-        <v>73.121910337354961</v>
+        <v>77.645383002750009</v>
       </c>
       <c r="D2">
-        <v>91.400086454502599</v>
+        <v>80.736228446225013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0155476440039789</v>
+        <v>0.034755016870321301</v>
       </c>
       <c r="B3">
-        <v>0.0023246288785914002</v>
+        <v>0.010962239995834001</v>
       </c>
       <c r="C3">
-        <v>0.26081443490084327</v>
+        <v>0.25304209365171559</v>
       </c>
       <c r="D3">
-        <v>0.47308451728747442</v>
+        <v>0.44691491262137878</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>73.765024139619001</v>
+        <v>78.238519169724668</v>
       </c>
       <c r="B4">
-        <v>90.835919259031499</v>
+        <v>79.487992516267411</v>
       </c>
       <c r="C4">
-        <v>73.765024139619001</v>
+        <v>78.238519169724668</v>
       </c>
       <c r="D4">
-        <v>90.835919259031499</v>
+        <v>79.487992516267411</v>
       </c>
     </row>
     <row r="6">
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2099582380693473</v>
+        <v>0.2197470113657837</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.25879082666989328</v>
+        <v>-0.27143474996043193</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>1</v>
@@ -2337,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="39">
-        <v>0.39108266039749823</v>
+        <v>0.31563144499927071</v>
       </c>
       <c r="K6" s="40">
-        <v>-0.4347699716844935</v>
+        <v>-0.37188548348423323</v>
       </c>
       <c r="N6" s="73" t="s">
         <v>1</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="75">
-        <v>0.16258543889236302</v>
+        <v>0.18415204026907101</v>
       </c>
       <c r="Q6" s="76">
-        <v>-0.15992232147287938</v>
+        <v>-0.18148892284958732</v>
       </c>
       <c r="T6" s="109" t="s">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="V6" s="111">
-        <v>0.14789083484105198</v>
+        <v>0.13147294599010373</v>
       </c>
       <c r="W6" s="112">
-        <v>-0.31797550305977512</v>
+        <v>-0.292905771369255</v>
       </c>
     </row>
     <row r="7">
@@ -2373,40 +2373,40 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7">
-        <v>0.086782385128118256</v>
+        <v>0.10408624505477436</v>
       </c>
       <c r="E7" s="8">
-        <v>0.067367044470133836</v>
+        <v>0.077461861863947282</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="43">
-        <v>0.12842251359927406</v>
+        <v>0.1240738315324859</v>
       </c>
       <c r="K7" s="44">
-        <v>0.077891239756256808</v>
+        <v>0.071441415343754144</v>
       </c>
       <c r="N7" s="77" t="s">
         <v>2</v>
       </c>
       <c r="O7" s="78"/>
       <c r="P7" s="79">
-        <v>0.14458873313251167</v>
+        <v>0.16111408524587723</v>
       </c>
       <c r="Q7" s="80">
-        <v>0.052162330985730407</v>
+        <v>0.062254310633557214</v>
       </c>
       <c r="T7" s="113" t="s">
         <v>2</v>
       </c>
       <c r="U7" s="114"/>
       <c r="V7" s="115">
-        <v>0.20612842434822765</v>
+        <v>0.17286144100619658</v>
       </c>
       <c r="W7" s="116">
-        <v>0.085411539929115307</v>
+        <v>0.073827712657334219</v>
       </c>
     </row>
     <row r="8">
@@ -2415,40 +2415,40 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11">
-        <v>2.4193646874234043</v>
+        <v>2.1112012567092222</v>
       </c>
       <c r="E8" s="12">
-        <v>-3.8415048293327505</v>
+        <v>-3.5041082595868325</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="47">
-        <v>3.0452811538779048</v>
+        <v>2.5439002012010068</v>
       </c>
       <c r="K8" s="48">
-        <v>-5.5817569863441481</v>
+        <v>-5.2054607498302561</v>
       </c>
       <c r="N8" s="81" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="82"/>
       <c r="P8" s="83">
-        <v>1.1244682443088969</v>
+        <v>1.1429915639469721</v>
       </c>
       <c r="Q8" s="84">
-        <v>-3.0658584164236817</v>
+        <v>-2.9152828294553235</v>
       </c>
       <c r="T8" s="117" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="118"/>
       <c r="V8" s="119">
-        <v>0.71746938981694874</v>
+        <v>0.76056837907183017</v>
       </c>
       <c r="W8" s="120">
-        <v>-3.7228634833614889</v>
+        <v>-3.9674230831009911</v>
       </c>
     </row>
     <row r="9">
@@ -2457,40 +2457,40 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15">
-        <v>0.015547644003978936</v>
+        <v>0.034755016870321391</v>
       </c>
       <c r="E9" s="16">
-        <v>0.0001222823298317052</v>
+        <v>0.00045813906909431711</v>
       </c>
       <c r="H9" s="49" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="50"/>
       <c r="J9" s="51">
-        <v>0.0023246288785913872</v>
+        <v>0.010962239995833966</v>
       </c>
       <c r="K9" s="52">
-        <v>2.3810091081083667e-08</v>
+        <v>1.9351584873100632e-07</v>
       </c>
       <c r="N9" s="85" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="86"/>
       <c r="P9" s="87">
-        <v>0.26081443490084305</v>
+        <v>0.25304209365171548</v>
       </c>
       <c r="Q9" s="88">
-        <v>0.002170460658091056</v>
+        <v>0.0035536633430845199</v>
       </c>
       <c r="T9" s="121" t="s">
         <v>4</v>
       </c>
       <c r="U9" s="122"/>
       <c r="V9" s="123">
-        <v>0.47308451728747369</v>
+        <v>0.44691491262137834</v>
       </c>
       <c r="W9" s="124">
-        <v>0.00019697603845107161</v>
+        <v>7.2653949089495427e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2499,40 +2499,40 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
-        <v>0.039867888725751144</v>
+        <v>0.015741719772415674</v>
       </c>
       <c r="E10" s="20">
-        <v>-0.39082780757626379</v>
+        <v>-0.42325720938918532</v>
       </c>
       <c r="H10" s="53" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="54"/>
       <c r="J10" s="55">
-        <v>0.13937915893881581</v>
+        <v>0.072451203771708273</v>
       </c>
       <c r="K10" s="56">
-        <v>-0.58743399631793125</v>
+        <v>-0.51190808456255854</v>
       </c>
       <c r="N10" s="89" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="90"/>
       <c r="P10" s="91">
-        <v>-0.12080327061763305</v>
+        <v>-0.13162576421496441</v>
       </c>
       <c r="Q10" s="92">
-        <v>-0.26215861155456865</v>
+        <v>-0.30350512957372833</v>
       </c>
       <c r="T10" s="125" t="s">
         <v>5</v>
       </c>
       <c r="U10" s="126"/>
       <c r="V10" s="127">
-        <v>-0.25611345307146333</v>
+        <v>-0.20732925269773678</v>
       </c>
       <c r="W10" s="128">
-        <v>-0.4853790451849459</v>
+        <v>-0.43760542923860191</v>
       </c>
     </row>
     <row r="11">
@@ -2541,40 +2541,40 @@
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="23">
-        <v>0.38004858741294345</v>
+        <v>0.42375230295915173</v>
       </c>
       <c r="E11" s="24">
-        <v>-0.12675384576352278</v>
+        <v>-0.11961229053167857</v>
       </c>
       <c r="H11" s="57" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="59">
-        <v>0.64278616185618065</v>
+        <v>0.55881168622683308</v>
       </c>
       <c r="K11" s="60">
-        <v>-0.28210594705105574</v>
+        <v>-0.23186288240590791</v>
       </c>
       <c r="N11" s="93" t="s">
         <v>6</v>
       </c>
       <c r="O11" s="94"/>
       <c r="P11" s="95">
-        <v>0.44597414840235905</v>
+        <v>0.49992984475310642</v>
       </c>
       <c r="Q11" s="96">
-        <v>-0.057686031391190093</v>
+        <v>-0.059472716125446273</v>
       </c>
       <c r="T11" s="129" t="s">
         <v>6</v>
       </c>
       <c r="U11" s="130"/>
       <c r="V11" s="131">
-        <v>0.55189512275356734</v>
+        <v>0.47027514467794424</v>
       </c>
       <c r="W11" s="132">
-        <v>-0.15057196093460437</v>
+        <v>-0.14820611349990806</v>
       </c>
     </row>
     <row r="12">
